--- a/biology/Botanique/Bogue_(botanique)/Bogue_(botanique).xlsx
+++ b/biology/Botanique/Bogue_(botanique)/Bogue_(botanique).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">En botanique, une bogue est l'enveloppe hérissée de piquants de certains fruits dont les châtaignes et les marrons d'Inde. Il s'agit d'un involucre de bractées mimant une capsule et s'ouvrant à maturité pour le châtaigner. Pour le marronnier d'Inde il s'agit du fruit proprement dit. 
 </t>
@@ -511,9 +523,11 @@
           <t>Bogue de la châtaigne</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle est formée de bractées épineuses et mime une capsule; cette bogue contient les fruits qui sont les châtaignes. Au moins deux espèces de champignons sont inféodées aux vieilles bogues de châtaignes : Lanzia echinophila en Eurasie et  Ciboria americana en Amérique du Nord[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle est formée de bractées épineuses et mime une capsule; cette bogue contient les fruits qui sont les châtaignes. Au moins deux espèces de champignons sont inféodées aux vieilles bogues de châtaignes : Lanzia echinophila en Eurasie et  Ciboria americana en Amérique du Nord.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Bogue du marronnier</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une capsule, c'est-à-dire un fruit déhiscent qui contient les graines (les marrons).
 </t>
@@ -573,9 +589,11 @@
           <t>Dans la culture</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">À Redon, en Bretagne, depuis 1975 la Bogue d'or est un festival organisé par le Groupement culturel breton des pays de Vilaine. Il se déroule le 4e week-end d'octobre. Créé à l'initiative de Jean-Bernard Vighetti, ce festival a pour but de valoriser le chant, la musique et le conte traditionnel de Haute-Bretagne. Son nom est lié à la châtaigne, spécialité reconnue du pays de Redon. La Bogue d'or est désormais inscrite à l'Inventaire du patrimoine culturel immatériel en France[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">À Redon, en Bretagne, depuis 1975 la Bogue d'or est un festival organisé par le Groupement culturel breton des pays de Vilaine. Il se déroule le 4e week-end d'octobre. Créé à l'initiative de Jean-Bernard Vighetti, ce festival a pour but de valoriser le chant, la musique et le conte traditionnel de Haute-Bretagne. Son nom est lié à la châtaigne, spécialité reconnue du pays de Redon. La Bogue d'or est désormais inscrite à l'Inventaire du patrimoine culturel immatériel en France.
 </t>
         </is>
       </c>
